--- a/artfynd/A 56420-2021 artfynd.xlsx
+++ b/artfynd/A 56420-2021 artfynd.xlsx
@@ -807,7 +807,7 @@
         <v>122619436</v>
       </c>
       <c r="B3" t="n">
-        <v>57791</v>
+        <v>57795</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
